--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/外商资本金.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/外商资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,369 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9.05176</v>
-      </c>
-      <c r="C2" t="n">
-        <v>220.21332</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.22819</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.70552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>37.02774</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.33707</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14.87391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.30613</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665.9142000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.59425</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.17845</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.39961</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.41226</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.511139999999999</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
-        <v>3.94776</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.79833</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.36473</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.9684700000000001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.09774</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>26.97026</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>94.52791000000001</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34.86943</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.08562</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3.3087</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>13.97962</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.04725</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>5.79483</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.25212</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21.76208</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.5033</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9.351290000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>16.33682</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>27.59957</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>21.12942</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>12.3267</v>
-      </c>
-      <c r="C3" t="n">
-        <v>234.867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.80214</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.8184900000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34.50773</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.67954</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.55866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.23281</v>
-      </c>
-      <c r="K3" t="n">
-        <v>766.25908</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.55856</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.31515</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.20924</v>
-      </c>
-      <c r="O3" t="n">
-        <v>70.95268</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.210380000000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.34199</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.98164</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.75174</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.82497</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.14347</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.51677</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>59.13855</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>87.68604999999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>39.53674</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.38819</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13.0731</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>14.80718</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.69965</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6.39438</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.07826</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>24.9476</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.69438</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.16398</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>12.06541</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>36.87099</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>22.81789</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.01007</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11.81957</v>
-      </c>
-      <c r="C4" t="n">
-        <v>241.44572</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.30916</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.3922</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42.12875</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21.54307</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16.41776</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.49502</v>
-      </c>
-      <c r="K4" t="n">
-        <v>832.33303</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.466</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.31753</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.38593</v>
-      </c>
-      <c r="O4" t="n">
-        <v>71.07164</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.76756</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.06738</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.89507</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.24763</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.31819</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>5.2093</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.75211</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>78.44269</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>88.47638999999999</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>47.15354</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.04434</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>14.10698</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25.13507</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13.89356</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.96586</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6.56853</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.53988</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>20.97059</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.25972</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.008470000000001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>7.92844</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>36.64304</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22.04674</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
